--- a/output/rnn_v1.xlsx
+++ b/output/rnn_v1.xlsx
@@ -11,179 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,230 +366,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.599447179284895</v>
+      </c>
+      <c r="C2">
+        <v>1.599447736088534</v>
+      </c>
+      <c r="D2">
+        <v>1.599450662269355</v>
+      </c>
       <c r="E2">
-        <v>1.599458232429457</v>
+        <v>1.599450164700147</v>
+      </c>
+      <c r="F2">
+        <v>1.5994491103273</v>
+      </c>
+      <c r="G2">
+        <v>1.599450508259838</v>
       </c>
       <c r="H2">
-        <v>1.599450662269355</v>
+        <v>1.599451041369705</v>
+      </c>
+      <c r="I2">
+        <v>1.59945439403842</v>
+      </c>
+      <c r="J2">
+        <v>1.599454500660393</v>
       </c>
       <c r="K2">
-        <v>1.599455768277186</v>
-      </c>
-      <c r="U2">
-        <v>1.599458445673404</v>
-      </c>
-      <c r="V2">
-        <v>1.599450508259838</v>
-      </c>
-      <c r="AD2">
-        <v>1.599454500660393</v>
-      </c>
-      <c r="AE2">
         <v>1.599454583588594</v>
-      </c>
-      <c r="AG2">
-        <v>1.599447179284895</v>
-      </c>
-      <c r="AI2">
-        <v>1.599447736088534</v>
-      </c>
-      <c r="AO2">
-        <v>1.599455424717494</v>
-      </c>
-      <c r="AQ2">
-        <v>1.59945439403842</v>
-      </c>
-      <c r="AU2">
-        <v>1.599450164700147</v>
-      </c>
-      <c r="AW2">
-        <v>1.599451041369705</v>
-      </c>
-      <c r="AX2">
-        <v>1.599461111222735</v>
-      </c>
-      <c r="BD2">
-        <v>1.5994491103273</v>
       </c>
     </row>
   </sheetData>
